--- a/flows/MTBA_fund_flow_data.xlsx
+++ b/flows/MTBA_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1235,6 +1235,126 @@
         <v>0</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2.52975</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>3.80685</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2.53525</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>6.355875</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>7.6413</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>5.1033</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>8.924474999999999</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>8.923425</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>16.49115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
